--- a/资产负债表/300923.xlsx
+++ b/资产负债表/300923.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,63 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>731743024.7</v>
+        <v>612341649.92</v>
       </c>
       <c r="P2" t="n">
-        <v>78747128.08</v>
+        <v>84851543.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>15590515.52</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>33984130.72</v>
+      </c>
+      <c r="R2" t="n">
+        <v>279.7880318212</v>
+      </c>
       <c r="S2" t="n">
-        <v>313250881.83</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>242397183.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-10.5564304512</v>
+      </c>
       <c r="U2" t="n">
-        <v>124035973.77</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>110414789.44</v>
+      </c>
+      <c r="V2" t="n">
+        <v>17.0554156754</v>
+      </c>
       <c r="W2" t="n">
-        <v>167392722.68</v>
+        <v>162135037.35</v>
       </c>
       <c r="X2" t="n">
-        <v>94993856.88</v>
+        <v>89080296.41</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>409818.02</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-21.9781473789</v>
+      </c>
       <c r="AB2" t="n">
-        <v>564350302.02</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>450206612.57</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.416387028</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.8868420451</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-3.9552733276</v>
+      </c>
       <c r="AF2" t="n">
-        <v>354.1355814212</v>
+        <v>290.5303573026</v>
       </c>
       <c r="AG2" t="n">
-        <v>22.8758890799</v>
+        <v>26.47787185</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300923.xlsx
+++ b/资产负债表/300923.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,63 +789,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>612341649.92</v>
+        <v>731743024.7</v>
       </c>
       <c r="P2" t="n">
-        <v>84851543.37</v>
+        <v>78747128.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>33984130.72</v>
-      </c>
-      <c r="R2" t="n">
-        <v>279.7880318212</v>
-      </c>
+        <v>15590515.52</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>242397183.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-10.5564304512</v>
-      </c>
+        <v>313250881.83</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>110414789.44</v>
-      </c>
-      <c r="V2" t="n">
-        <v>17.0554156754</v>
-      </c>
+        <v>124035973.77</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>162135037.35</v>
+        <v>167392722.68</v>
       </c>
       <c r="X2" t="n">
-        <v>89080296.41</v>
+        <v>94993856.88</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>409818.02</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-21.9781473789</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>450206612.57</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11.416387028</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.8868420451</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-3.9552733276</v>
-      </c>
+        <v>564350302.02</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>290.5303573026</v>
+        <v>354.1355814212</v>
       </c>
       <c r="AG2" t="n">
-        <v>26.47787185</v>
+        <v>22.8758890799</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
